--- a/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from IHE XCPD Codesys" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from CH Codesystem PD" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttriburesRequested.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot-2</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-19T17:31:05+00:00</t>
+    <t>2024-12-18T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
